--- a/SAO JOAO 4.xlsx
+++ b/SAO JOAO 4.xlsx
@@ -1,37 +1,653 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Renderizações\SAO JOAO 4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9780"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="202">
+  <si>
+    <t>INSCRIÇÃO</t>
+  </si>
+  <si>
+    <t>GeoCodigo</t>
+  </si>
+  <si>
+    <t>Proprietario</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>627325_7716572</t>
+  </si>
+  <si>
+    <t>MAURILIO JOSE GOMES</t>
+  </si>
+  <si>
+    <t>627170_7716429</t>
+  </si>
+  <si>
+    <t>ELIAS FERREIRA DE JESUS</t>
+  </si>
+  <si>
+    <t>627132_7716425</t>
+  </si>
+  <si>
+    <t>WELLINGTON RIBEIRO MOREIRA</t>
+  </si>
+  <si>
+    <t>627230_7716369</t>
+  </si>
+  <si>
+    <t>MARCONES DE AVILA VIEIRA</t>
+  </si>
+  <si>
+    <t>627292_7716639</t>
+  </si>
+  <si>
+    <t>WITSON MAGGELA FARIA</t>
+  </si>
+  <si>
+    <t>627255_7716653</t>
+  </si>
+  <si>
+    <t>NEUZIANE APARECIDA DE PAIVA E OUTRA</t>
+  </si>
+  <si>
+    <t>627173_7716236</t>
+  </si>
+  <si>
+    <t>MAURICIO FERNANDES PENNA BAETA</t>
+  </si>
+  <si>
+    <t>627188_7716205</t>
+  </si>
+  <si>
+    <t>WANDER LUCIO VIEIRA E JOSE LUIZ VIEIRA</t>
+  </si>
+  <si>
+    <t>627241_7716277</t>
+  </si>
+  <si>
+    <t>GERALDO HENRIQUE DE CASTRO</t>
+  </si>
+  <si>
+    <t>627298_7716360</t>
+  </si>
+  <si>
+    <t>LUIZ ANTONIO BRAVOS E OUTROS</t>
+  </si>
+  <si>
+    <t>627105_7716157</t>
+  </si>
+  <si>
+    <t>JOSE LUIZ PIANCO</t>
+  </si>
+  <si>
+    <t>627312_7716365</t>
+  </si>
+  <si>
+    <t>ADILSON PAULO DE MIRANDA</t>
+  </si>
+  <si>
+    <t>627367_7716500</t>
+  </si>
+  <si>
+    <t>VALDECI CAETANO MOREIRA</t>
+  </si>
+  <si>
+    <t>626918_7716256</t>
+  </si>
+  <si>
+    <t>MELINA GABRIELA BITTENCOURT MODESTO E OU</t>
+  </si>
+  <si>
+    <t>626966_7716220</t>
+  </si>
+  <si>
+    <t>ROSA MARIA DE JESUS</t>
+  </si>
+  <si>
+    <t>626831_7716319</t>
+  </si>
+  <si>
+    <t>MARIA DA CUNHA LEANDRO E OUTROS</t>
+  </si>
+  <si>
+    <t>627019_7716231</t>
+  </si>
+  <si>
+    <t>CATARINO SOARES</t>
+  </si>
+  <si>
+    <t>626766_7716421</t>
+  </si>
+  <si>
+    <t>MARIA BERENICE BAETA SILVA</t>
+  </si>
+  <si>
+    <t>627066_7716445</t>
+  </si>
+  <si>
+    <t>ANGELO DE SOUZA JUNIOR E S/M</t>
+  </si>
+  <si>
+    <t>627103_7716466</t>
+  </si>
+  <si>
+    <t>ALEXANDRE LANA MACIEL</t>
+  </si>
+  <si>
+    <t>627066_7716479</t>
+  </si>
+  <si>
+    <t>ROBSON BITTENCOURT DURAES</t>
+  </si>
+  <si>
+    <t>627082_7716526</t>
+  </si>
+  <si>
+    <t>ARLINDA ELIANE VAZ DE LIMA E OUTRO</t>
+  </si>
+  <si>
+    <t>627103_7716449</t>
+  </si>
+  <si>
+    <t>OLIVEIRO PARREIRA DAS CHAGAS E OUTRA</t>
+  </si>
+  <si>
+    <t>627130_7716621</t>
+  </si>
+  <si>
+    <t>EDUARDO ROBERTO DA SILVA</t>
+  </si>
+  <si>
+    <t>627167_7716570</t>
+  </si>
+  <si>
+    <t>ALESSANDRO ALVES TAVARES DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>626949_7716665</t>
+  </si>
+  <si>
+    <t>VICENTE FERREIRA DA FONSECA FILHO</t>
+  </si>
+  <si>
+    <t>626995_7716660</t>
+  </si>
+  <si>
+    <t>JOSE ARLINDO DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>626963_7716633</t>
+  </si>
+  <si>
+    <t>GERALDO PASSOS DE ANDRADE</t>
+  </si>
+  <si>
+    <t>626933_7716701</t>
+  </si>
+  <si>
+    <t>GERALDO CAMPOS FILHO</t>
+  </si>
+  <si>
+    <t>626959_7716644</t>
+  </si>
+  <si>
+    <t>SUZINETE DA CONCEICAO TITO LUIZ</t>
+  </si>
+  <si>
+    <t>626979_7716600</t>
+  </si>
+  <si>
+    <t>ANGELO MARCIO MARCAL</t>
+  </si>
+  <si>
+    <t>627030_7716577</t>
+  </si>
+  <si>
+    <t>MERCIA PATRICIA DO NASCIMENTO E OUTRO</t>
+  </si>
+  <si>
+    <t>626967_7716730</t>
+  </si>
+  <si>
+    <t>RENAN COELHO RIGAMONTE FILHO</t>
+  </si>
+  <si>
+    <t>627238_7716693</t>
+  </si>
+  <si>
+    <t>MIRIAM MAGELA DONATO VIEIRA</t>
+  </si>
+  <si>
+    <t>627249_7716687</t>
+  </si>
+  <si>
+    <t>JOSE MARCOS DA SILVA</t>
+  </si>
+  <si>
+    <t>627073_7716240</t>
+  </si>
+  <si>
+    <t>NILSON TEODORO DA SILVA</t>
+  </si>
+  <si>
+    <t>627057_7716241</t>
+  </si>
+  <si>
+    <t>VANDER LUCIO FERREIRA</t>
+  </si>
+  <si>
+    <t>626989_7716291</t>
+  </si>
+  <si>
+    <t>LEANDRA CARLA DE SOUZA</t>
+  </si>
+  <si>
+    <t>626893_7716363</t>
+  </si>
+  <si>
+    <t>JOSE PIMENTA SOBRINHO</t>
+  </si>
+  <si>
+    <t>626825_7716413</t>
+  </si>
+  <si>
+    <t>JOSE LUIZ DE OLIVEIRA SILVA</t>
+  </si>
+  <si>
+    <t>627086_7716267</t>
+  </si>
+  <si>
+    <t>NEUSA VIEIRA DE REZENDE</t>
+  </si>
+  <si>
+    <t>626999_7716284</t>
+  </si>
+  <si>
+    <t>CARLOS ALBERTO DOS SANTOS</t>
+  </si>
+  <si>
+    <t>627047_7716248</t>
+  </si>
+  <si>
+    <t>EDUARDO COSTA CORREA</t>
+  </si>
+  <si>
+    <t>627037_7716255</t>
+  </si>
+  <si>
+    <t>JOSE BRAGA QUARESMA</t>
+  </si>
+  <si>
+    <t>627071_7716279</t>
+  </si>
+  <si>
+    <t>WELESON LUCIANO MACIEL PEREIRA</t>
+  </si>
+  <si>
+    <t>627027_7716263</t>
+  </si>
+  <si>
+    <t>DIMAS JACINTO DA ROCHA</t>
+  </si>
+  <si>
+    <t>627050_7716295</t>
+  </si>
+  <si>
+    <t>CARLOS CESAR CATARINA</t>
+  </si>
+  <si>
+    <t>626991_7716340</t>
+  </si>
+  <si>
+    <t>RITA APARECIDA GOMES DA SILVA E OUTROS</t>
+  </si>
+  <si>
+    <t>626950_7716320</t>
+  </si>
+  <si>
+    <t>ANA GOMES GOULART</t>
+  </si>
+  <si>
+    <t>626855_7716441</t>
+  </si>
+  <si>
+    <t>LUIZ AFONSO SILVA</t>
+  </si>
+  <si>
+    <t>627134_7716233</t>
+  </si>
+  <si>
+    <t>GERALDO FERREIRA CRISTIANO</t>
+  </si>
+  <si>
+    <t>626955_7716762</t>
+  </si>
+  <si>
+    <t>CAIXA ECONOMICA FEDERAL</t>
+  </si>
+  <si>
+    <t>626907_7716362</t>
+  </si>
+  <si>
+    <t>NILSON DA SILVA</t>
+  </si>
+  <si>
+    <t>627125_7716195</t>
+  </si>
+  <si>
+    <t>SALAZAR RODRIGUES DA SILVA</t>
+  </si>
+  <si>
+    <t>626874_7716377</t>
+  </si>
+  <si>
+    <t>STHEFANIE CARVALHO DE ALVILA FERNANDES</t>
+  </si>
+  <si>
+    <t>627430_7716576</t>
+  </si>
+  <si>
+    <t>HILLO OLIVEIRA NASCIMENTO DOS SANTOS</t>
+  </si>
+  <si>
+    <t>627318_7716555</t>
+  </si>
+  <si>
+    <t>CARLOS ALBERTO MARINHO AMARO</t>
+  </si>
+  <si>
+    <t>626837_7716451</t>
+  </si>
+  <si>
+    <t>FRANCISCO JOSE BACELETE DE MORAIS</t>
+  </si>
+  <si>
+    <t>626884_7716370</t>
+  </si>
+  <si>
+    <t>LUIS RICARDO CALDEIRA ALBANESE</t>
+  </si>
+  <si>
+    <t>627185_7716430</t>
+  </si>
+  <si>
+    <t>WESLEY CARPEGIANE FONSECA PAIVA</t>
+  </si>
+  <si>
+    <t>627196_7716305</t>
+  </si>
+  <si>
+    <t>LUZIA MARIA DA SILVA</t>
+  </si>
+  <si>
+    <t>626823_7716488</t>
+  </si>
+  <si>
+    <t>LUIZ GONCALVES MOREIRA</t>
+  </si>
+  <si>
+    <t>626872_7716659</t>
+  </si>
+  <si>
+    <t>ROBERTO GOMES CHAVES</t>
+  </si>
+  <si>
+    <t>627146_7716225</t>
+  </si>
+  <si>
+    <t>AIR VIEIRA DE REZENDE JUNIOR</t>
+  </si>
+  <si>
+    <t>626953_7716102</t>
+  </si>
+  <si>
+    <t>ANDRE CLAUDIO DE ARAUJO</t>
+  </si>
+  <si>
+    <t>627212_7716571</t>
+  </si>
+  <si>
+    <t>HUGO GERALDO DE MORAIS</t>
+  </si>
+  <si>
+    <t>627318_7716574</t>
+  </si>
+  <si>
+    <t>FERNANDO LUIZ ALVES ABRANTES</t>
+  </si>
+  <si>
+    <t>627292_7716514</t>
+  </si>
+  <si>
+    <t>ALEXANDRE COSTA DE ABREU</t>
+  </si>
+  <si>
+    <t>627280_7716516</t>
+  </si>
+  <si>
+    <t>TIAGO HENRIQUE DO CARMO VIEIRA</t>
+  </si>
+  <si>
+    <t>627327_7716507</t>
+  </si>
+  <si>
+    <t>BERNARDO RUSSO DE GUSMAO</t>
+  </si>
+  <si>
+    <t>626932_7716155</t>
+  </si>
+  <si>
+    <t>ANDERSON BATISTA AMORIM</t>
+  </si>
+  <si>
+    <t>626846_7716360</t>
+  </si>
+  <si>
+    <t>CARLOS VENCESLAU DE MIRANDA</t>
+  </si>
+  <si>
+    <t>627373_7716520</t>
+  </si>
+  <si>
+    <t>CECILIA MENDES CAMPELO DE RESENDE</t>
+  </si>
+  <si>
+    <t>627329_7716447</t>
+  </si>
+  <si>
+    <t>JOAO PAULO AUGUSTO MACEDO</t>
+  </si>
+  <si>
+    <t>627307_7716578</t>
+  </si>
+  <si>
+    <t>ALEXANDRE LUCIANO DA COSTA</t>
+  </si>
+  <si>
+    <t>626960_7716313</t>
+  </si>
+  <si>
+    <t>ROBSON DE ASSIS GONCALVES</t>
+  </si>
+  <si>
+    <t>627285_7716403</t>
+  </si>
+  <si>
+    <t>MARIA DO CARMO FERREIRA BASTOS</t>
+  </si>
+  <si>
+    <t>626801_7716478</t>
+  </si>
+  <si>
+    <t>GIULIANO DE OLIVEIRA GOMES</t>
+  </si>
+  <si>
+    <t>626964_7716552</t>
+  </si>
+  <si>
+    <t>MARCO AURELIO HENRIQUE DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>627043_7716418</t>
+  </si>
+  <si>
+    <t>CARLOS ALBERTO GARCIA</t>
+  </si>
+  <si>
+    <t>626866_7716166</t>
+  </si>
+  <si>
+    <t>CHRISTIANNE MARIA RIBEIRO</t>
+  </si>
+  <si>
+    <t>627063_7716366</t>
+  </si>
+  <si>
+    <t>JOSE LOURDES DE SAO JOSE</t>
+  </si>
+  <si>
+    <t>626938_7716690</t>
+  </si>
+  <si>
+    <t>RODRIGO CAMARGOS VIEIRA E S/M</t>
+  </si>
+  <si>
+    <t>627205_7716229</t>
+  </si>
+  <si>
+    <t>ELIZETE APARECIDA DUTRA DA SILVA</t>
+  </si>
+  <si>
+    <t>626988_7716372</t>
+  </si>
+  <si>
+    <t>DANIEL JARDIM ANTUNES VIEIRA</t>
+  </si>
+  <si>
+    <t>627015_7716644</t>
+  </si>
+  <si>
+    <t>LILIANE CUNHA DAS GRACAS MARTINS</t>
+  </si>
+  <si>
+    <t>627019_7716674</t>
+  </si>
+  <si>
+    <t>HELMER MAGALHAES ANTUNES</t>
+  </si>
+  <si>
+    <t>627300_7716709</t>
+  </si>
+  <si>
+    <t>ANA PAULA ENRIQUES</t>
+  </si>
+  <si>
+    <t>627027_7716587</t>
+  </si>
+  <si>
+    <t>IMART INCORPORACOES IMOBILIARIAS LTDA</t>
+  </si>
+  <si>
+    <t>626926_7716644</t>
+  </si>
+  <si>
+    <t>RONALD JUNIOR DA COSTA</t>
+  </si>
+  <si>
+    <t>627261_7716424</t>
+  </si>
+  <si>
+    <t>MARSIL LTDA</t>
+  </si>
+  <si>
+    <t>627313_7716709</t>
+  </si>
+  <si>
+    <t>627212_7716616</t>
+  </si>
+  <si>
+    <t>627249_7716643</t>
+  </si>
+  <si>
+    <t>626891_7716611</t>
+  </si>
+  <si>
+    <t>626828_7716668</t>
+  </si>
+  <si>
+    <t>627250_7716490</t>
+  </si>
+  <si>
+    <t>627323_7716702</t>
+  </si>
+  <si>
+    <t>626744_7716369</t>
+  </si>
+  <si>
+    <t>626991_7716749</t>
+  </si>
+  <si>
+    <t>627020_7716526</t>
+  </si>
+  <si>
+    <t>627220_7716465</t>
+  </si>
+  <si>
+    <t>627243_7716521</t>
+  </si>
+  <si>
+    <t>627079_7716666</t>
+  </si>
+  <si>
+    <t>627033_7716521</t>
+  </si>
+  <si>
+    <t>627029_7716224</t>
+  </si>
+  <si>
+    <t>APARECIDA MARTINS DA CUNHA</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +662,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,39 +986,1829 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>INSCRIÇÃO</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>GeoCodigo</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Proprietario</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1052349</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>365009</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1021184</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>365270</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>872210</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>870285</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>15300</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>15474</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>365475</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>872873</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>28150</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>872865</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1080000</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>11797</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>15326</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>30880</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>11126</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>11452</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>365386</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>364932</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>365360</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>365335</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>364940</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>869996</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>872474</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>871788</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>870102</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>871818</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>871753</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>871800</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>871842</v>
+      </c>
+      <c r="C32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>938220</v>
+      </c>
+      <c r="C33" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>870510</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>870773</v>
+      </c>
+      <c r="C35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>870781</v>
+      </c>
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>1033964</v>
+      </c>
+      <c r="C37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>11355</v>
+      </c>
+      <c r="C38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>11290</v>
+      </c>
+      <c r="C39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>11568</v>
+      </c>
+      <c r="C40" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>11495</v>
+      </c>
+      <c r="C41" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" t="s">
+        <v>83</v>
+      </c>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>10464</v>
+      </c>
+      <c r="C42" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" t="s">
+        <v>85</v>
+      </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>904503</v>
+      </c>
+      <c r="C43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>11347</v>
+      </c>
+      <c r="C44" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" t="s">
+        <v>89</v>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>11339</v>
+      </c>
+      <c r="C45" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" t="s">
+        <v>91</v>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>10472</v>
+      </c>
+      <c r="C46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>11320</v>
+      </c>
+      <c r="C47" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" t="s">
+        <v>95</v>
+      </c>
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>10499</v>
+      </c>
+      <c r="C48" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>10545</v>
+      </c>
+      <c r="C49" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" t="s">
+        <v>99</v>
+      </c>
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>11258</v>
+      </c>
+      <c r="C50" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>10103</v>
+      </c>
+      <c r="C51" t="s">
+        <v>102</v>
+      </c>
+      <c r="D51" t="s">
+        <v>103</v>
+      </c>
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>10421</v>
+      </c>
+      <c r="C52" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52" t="s">
+        <v>105</v>
+      </c>
+      <c r="E52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>870544</v>
+      </c>
+      <c r="C53" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" t="s">
+        <v>107</v>
+      </c>
+      <c r="E53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>11363</v>
+      </c>
+      <c r="C54" t="s">
+        <v>108</v>
+      </c>
+      <c r="D54" t="s">
+        <v>109</v>
+      </c>
+      <c r="E54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>10944</v>
+      </c>
+      <c r="C55" t="s">
+        <v>110</v>
+      </c>
+      <c r="D55" t="s">
+        <v>111</v>
+      </c>
+      <c r="E55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>11541</v>
+      </c>
+      <c r="C56" t="s">
+        <v>112</v>
+      </c>
+      <c r="D56" t="s">
+        <v>113</v>
+      </c>
+      <c r="E56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>872679</v>
+      </c>
+      <c r="C57" t="s">
+        <v>114</v>
+      </c>
+      <c r="D57" t="s">
+        <v>115</v>
+      </c>
+      <c r="E57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>872350</v>
+      </c>
+      <c r="C58" t="s">
+        <v>116</v>
+      </c>
+      <c r="D58" t="s">
+        <v>117</v>
+      </c>
+      <c r="E58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>10111</v>
+      </c>
+      <c r="C59" t="s">
+        <v>118</v>
+      </c>
+      <c r="D59" t="s">
+        <v>119</v>
+      </c>
+      <c r="E59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>11550</v>
+      </c>
+      <c r="C60" t="s">
+        <v>120</v>
+      </c>
+      <c r="D60" t="s">
+        <v>121</v>
+      </c>
+      <c r="E60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>365017</v>
+      </c>
+      <c r="C61" t="s">
+        <v>122</v>
+      </c>
+      <c r="D61" t="s">
+        <v>123</v>
+      </c>
+      <c r="E61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>365769</v>
+      </c>
+      <c r="C62" t="s">
+        <v>124</v>
+      </c>
+      <c r="D62" t="s">
+        <v>125</v>
+      </c>
+      <c r="E62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>9920</v>
+      </c>
+      <c r="C63" t="s">
+        <v>126</v>
+      </c>
+      <c r="D63" t="s">
+        <v>127</v>
+      </c>
+      <c r="E63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>871893</v>
+      </c>
+      <c r="C64" t="s">
+        <v>128</v>
+      </c>
+      <c r="D64" t="s">
+        <v>129</v>
+      </c>
+      <c r="E64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>10413</v>
+      </c>
+      <c r="C65" t="s">
+        <v>130</v>
+      </c>
+      <c r="D65" t="s">
+        <v>131</v>
+      </c>
+      <c r="E65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>1066420</v>
+      </c>
+      <c r="C66" t="s">
+        <v>132</v>
+      </c>
+      <c r="D66" t="s">
+        <v>133</v>
+      </c>
+      <c r="E66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>872431</v>
+      </c>
+      <c r="C67" t="s">
+        <v>134</v>
+      </c>
+      <c r="D67" t="s">
+        <v>135</v>
+      </c>
+      <c r="E67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>1052357</v>
+      </c>
+      <c r="C68" t="s">
+        <v>136</v>
+      </c>
+      <c r="D68" t="s">
+        <v>137</v>
+      </c>
+      <c r="E68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>1047310</v>
+      </c>
+      <c r="C69" t="s">
+        <v>138</v>
+      </c>
+      <c r="D69" t="s">
+        <v>139</v>
+      </c>
+      <c r="E69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>873128</v>
+      </c>
+      <c r="C70" t="s">
+        <v>140</v>
+      </c>
+      <c r="D70" t="s">
+        <v>141</v>
+      </c>
+      <c r="E70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>873160</v>
+      </c>
+      <c r="C71" t="s">
+        <v>142</v>
+      </c>
+      <c r="D71" t="s">
+        <v>143</v>
+      </c>
+      <c r="E71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>12254</v>
+      </c>
+      <c r="C72" t="s">
+        <v>144</v>
+      </c>
+      <c r="D72" t="s">
+        <v>145</v>
+      </c>
+      <c r="E72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>15342</v>
+      </c>
+      <c r="C73" t="s">
+        <v>146</v>
+      </c>
+      <c r="D73" t="s">
+        <v>147</v>
+      </c>
+      <c r="E73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>872881</v>
+      </c>
+      <c r="C74" t="s">
+        <v>148</v>
+      </c>
+      <c r="D74" t="s">
+        <v>149</v>
+      </c>
+      <c r="E74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>872954</v>
+      </c>
+      <c r="C75" t="s">
+        <v>150</v>
+      </c>
+      <c r="D75" t="s">
+        <v>151</v>
+      </c>
+      <c r="E75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>872652</v>
+      </c>
+      <c r="C76" t="s">
+        <v>152</v>
+      </c>
+      <c r="D76" t="s">
+        <v>153</v>
+      </c>
+      <c r="E76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>11266</v>
+      </c>
+      <c r="C77" t="s">
+        <v>154</v>
+      </c>
+      <c r="D77" t="s">
+        <v>155</v>
+      </c>
+      <c r="E77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>936332</v>
+      </c>
+      <c r="C78" t="s">
+        <v>156</v>
+      </c>
+      <c r="D78" t="s">
+        <v>157</v>
+      </c>
+      <c r="E78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>9946</v>
+      </c>
+      <c r="C79" t="s">
+        <v>158</v>
+      </c>
+      <c r="D79" t="s">
+        <v>159</v>
+      </c>
+      <c r="E79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>10278</v>
+      </c>
+      <c r="C80" t="s">
+        <v>160</v>
+      </c>
+      <c r="D80" t="s">
+        <v>161</v>
+      </c>
+      <c r="E80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>365602</v>
+      </c>
+      <c r="C81" t="s">
+        <v>162</v>
+      </c>
+      <c r="D81" t="s">
+        <v>163</v>
+      </c>
+      <c r="E81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>15571</v>
+      </c>
+      <c r="C82" t="s">
+        <v>164</v>
+      </c>
+      <c r="D82" t="s">
+        <v>165</v>
+      </c>
+      <c r="E82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>10324</v>
+      </c>
+      <c r="C83" t="s">
+        <v>166</v>
+      </c>
+      <c r="D83" t="s">
+        <v>167</v>
+      </c>
+      <c r="E83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>871761</v>
+      </c>
+      <c r="C84" t="s">
+        <v>168</v>
+      </c>
+      <c r="D84" t="s">
+        <v>169</v>
+      </c>
+      <c r="E84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>1103933</v>
+      </c>
+      <c r="C85" t="s">
+        <v>170</v>
+      </c>
+      <c r="D85" t="s">
+        <v>171</v>
+      </c>
+      <c r="E85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>381160</v>
+      </c>
+      <c r="C86" t="s">
+        <v>172</v>
+      </c>
+      <c r="D86" t="s">
+        <v>173</v>
+      </c>
+      <c r="E86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>870080</v>
+      </c>
+      <c r="C87" t="s">
+        <v>174</v>
+      </c>
+      <c r="D87" t="s">
+        <v>175</v>
+      </c>
+      <c r="E87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>870145</v>
+      </c>
+      <c r="C88" t="s">
+        <v>176</v>
+      </c>
+      <c r="D88" t="s">
+        <v>177</v>
+      </c>
+      <c r="E88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>870854</v>
+      </c>
+      <c r="C89" t="s">
+        <v>178</v>
+      </c>
+      <c r="D89" t="s">
+        <v>179</v>
+      </c>
+      <c r="E89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>869937</v>
+      </c>
+      <c r="C90" t="s">
+        <v>180</v>
+      </c>
+      <c r="D90" t="s">
+        <v>181</v>
+      </c>
+      <c r="E90" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>871648</v>
+      </c>
+      <c r="C91" t="s">
+        <v>182</v>
+      </c>
+      <c r="D91" t="s">
+        <v>183</v>
+      </c>
+      <c r="E91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>873225</v>
+      </c>
+      <c r="C92" t="s">
+        <v>184</v>
+      </c>
+      <c r="D92" t="s">
+        <v>185</v>
+      </c>
+      <c r="E92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>870846</v>
+      </c>
+      <c r="C93" t="s">
+        <v>186</v>
+      </c>
+      <c r="D93" t="s">
+        <v>185</v>
+      </c>
+      <c r="E93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>872571</v>
+      </c>
+      <c r="C94" t="s">
+        <v>187</v>
+      </c>
+      <c r="D94" t="s">
+        <v>185</v>
+      </c>
+      <c r="E94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>870269</v>
+      </c>
+      <c r="C95" t="s">
+        <v>188</v>
+      </c>
+      <c r="D95" t="s">
+        <v>185</v>
+      </c>
+      <c r="E95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>871931</v>
+      </c>
+      <c r="C96" t="s">
+        <v>189</v>
+      </c>
+      <c r="D96" t="s">
+        <v>185</v>
+      </c>
+      <c r="E96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>871311</v>
+      </c>
+      <c r="C97" t="s">
+        <v>190</v>
+      </c>
+      <c r="D97" t="s">
+        <v>185</v>
+      </c>
+      <c r="E97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>873055</v>
+      </c>
+      <c r="C98" t="s">
+        <v>191</v>
+      </c>
+      <c r="D98" t="s">
+        <v>185</v>
+      </c>
+      <c r="E98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>870838</v>
+      </c>
+      <c r="C99" t="s">
+        <v>192</v>
+      </c>
+      <c r="D99" t="s">
+        <v>185</v>
+      </c>
+      <c r="E99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>11991</v>
+      </c>
+      <c r="C100" t="s">
+        <v>193</v>
+      </c>
+      <c r="D100" t="s">
+        <v>185</v>
+      </c>
+      <c r="E100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>870560</v>
+      </c>
+      <c r="C101" t="s">
+        <v>194</v>
+      </c>
+      <c r="D101" t="s">
+        <v>185</v>
+      </c>
+      <c r="E101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>365297</v>
+      </c>
+      <c r="C102" t="s">
+        <v>195</v>
+      </c>
+      <c r="D102" t="s">
+        <v>185</v>
+      </c>
+      <c r="E102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>873250</v>
+      </c>
+      <c r="C103" t="s">
+        <v>196</v>
+      </c>
+      <c r="D103" t="s">
+        <v>185</v>
+      </c>
+      <c r="E103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>873098</v>
+      </c>
+      <c r="C104" t="s">
+        <v>197</v>
+      </c>
+      <c r="D104" t="s">
+        <v>185</v>
+      </c>
+      <c r="E104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>870196</v>
+      </c>
+      <c r="C105" t="s">
+        <v>198</v>
+      </c>
+      <c r="D105" t="s">
+        <v>185</v>
+      </c>
+      <c r="E105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>365300</v>
+      </c>
+      <c r="C106" t="s">
+        <v>199</v>
+      </c>
+      <c r="D106" t="s">
+        <v>185</v>
+      </c>
+      <c r="E106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>15288</v>
+      </c>
+      <c r="C107" t="s">
+        <v>200</v>
+      </c>
+      <c r="D107" t="s">
+        <v>201</v>
+      </c>
+      <c r="E107" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
